--- a/output/risk/BRN_osm_tc_CNRM-CM6-1-HR_risk.xlsx
+++ b/output/risk/BRN_osm_tc_CNRM-CM6-1-HR_risk.xlsx
@@ -547,67 +547,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.308199929936335e-08</v>
+        <v>0.0002613836608625687</v>
       </c>
       <c r="C2" t="n">
-        <v>1.261639985987267e-07</v>
+        <v>0.0005227673217251374</v>
       </c>
       <c r="D2" t="n">
-        <v>3.154099964968168e-07</v>
+        <v>0.001306918304312844</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853343590049637e-13</v>
+        <v>5.689106774013116e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570668718009927e-12</v>
+        <v>1.137821354802623e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>3.926671795024819e-12</v>
+        <v>2.844553387006558e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>5.915233501568305e-13</v>
+        <v>3.01847205585438e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.183046700313661e-12</v>
+        <v>6.03694411170876e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>2.957616750784153e-12</v>
+        <v>1.50923602792719e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>3.597639316848511e-12</v>
+        <v>8.057042106980676e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>7.195278633697021e-12</v>
+        <v>1.611408421396135e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>1.798819658424256e-11</v>
+        <v>4.028521053490339e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.005889426806872e-13</v>
+        <v>1.340734678257388e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.011778853613743e-13</v>
+        <v>2.681469356514775e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.002944713403437e-12</v>
+        <v>6.703673391286938e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>269248.2975980715</v>
+        <v>304112.3102332038</v>
       </c>
       <c r="R2" t="n">
-        <v>538496.5951961429</v>
+        <v>608224.6204664075</v>
       </c>
       <c r="S2" t="n">
-        <v>1346241.487990358</v>
+        <v>1520561.551166019</v>
       </c>
       <c r="T2" t="n">
-        <v>194230.7795752701</v>
+        <v>259701.3663334413</v>
       </c>
       <c r="U2" t="n">
-        <v>388461.5591505402</v>
+        <v>519402.7326668826</v>
       </c>
       <c r="V2" t="n">
-        <v>971153.8978763504</v>
+        <v>1298506.831667206</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +617,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.731149947452252e-08</v>
+        <v>0.0001960377456469266</v>
       </c>
       <c r="C3" t="n">
-        <v>9.462299894904505e-08</v>
+        <v>0.0003920754912938531</v>
       </c>
       <c r="D3" t="n">
-        <v>2.365574973726126e-07</v>
+        <v>0.0009801887282346329</v>
       </c>
       <c r="E3" t="n">
-        <v>5.890007692537229e-13</v>
+        <v>4.266830080509837e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178001538507446e-12</v>
+        <v>8.533660161019674e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.945003846268614e-12</v>
+        <v>2.133415040254918e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>4.436425126176229e-13</v>
+        <v>2.263854041890785e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>8.872850252352458e-13</v>
+        <v>4.527708083781571e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>2.218212563088114e-12</v>
+        <v>1.131927020945392e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>2.698229487636384e-12</v>
+        <v>6.042781580235506e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>5.396458975272768e-12</v>
+        <v>1.208556316047101e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>1.349114743818192e-11</v>
+        <v>3.021390790117753e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.004417070105154e-13</v>
+        <v>1.005551008693041e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>6.008834140210308e-13</v>
+        <v>2.011102017386082e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.502208535052577e-12</v>
+        <v>5.027755043465204e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>201936.2231985536</v>
+        <v>228084.2326749029</v>
       </c>
       <c r="R3" t="n">
-        <v>403872.4463971073</v>
+        <v>456168.4653498058</v>
       </c>
       <c r="S3" t="n">
-        <v>1009681.115992768</v>
+        <v>1140421.163374514</v>
       </c>
       <c r="T3" t="n">
-        <v>145673.0846814526</v>
+        <v>194776.024750081</v>
       </c>
       <c r="U3" t="n">
-        <v>291346.1693629051</v>
+        <v>389552.049500162</v>
       </c>
       <c r="V3" t="n">
-        <v>728365.4234072629</v>
+        <v>973880.1237504049</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +687,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.885249912420421e-08</v>
+        <v>0.000326729576078211</v>
       </c>
       <c r="C4" t="n">
-        <v>1.577049982484084e-07</v>
+        <v>0.0006534591521564219</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94262495621021e-07</v>
+        <v>0.001633647880391055</v>
       </c>
       <c r="E4" t="n">
-        <v>9.816679487562047e-13</v>
+        <v>7.111383467516394e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>1.963335897512409e-12</v>
+        <v>1.422276693503279e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.908339743781024e-12</v>
+        <v>3.555691733758197e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>7.394041876960383e-13</v>
+        <v>3.773090069817975e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.478808375392077e-12</v>
+        <v>7.546180139635951e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.697020938480192e-12</v>
+        <v>1.886545034908988e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>4.49704914606064e-12</v>
+        <v>1.007130263372585e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>8.994098292121279e-12</v>
+        <v>2.014260526745169e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>2.24852457303032e-11</v>
+        <v>5.035651316862923e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.007361783508591e-13</v>
+        <v>1.675918347821735e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>1.001472356701718e-12</v>
+        <v>3.351836695643469e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.503680891754295e-12</v>
+        <v>8.379591739108671e-08</v>
       </c>
       <c r="Q4" t="n">
-        <v>336560.3719975894</v>
+        <v>380140.3877915048</v>
       </c>
       <c r="R4" t="n">
-        <v>673120.7439951788</v>
+        <v>760280.7755830096</v>
       </c>
       <c r="S4" t="n">
-        <v>1682801.859987947</v>
+        <v>1900701.938957524</v>
       </c>
       <c r="T4" t="n">
-        <v>242788.4744690876</v>
+        <v>324626.7079168016</v>
       </c>
       <c r="U4" t="n">
-        <v>485576.9489381752</v>
+        <v>649253.4158336031</v>
       </c>
       <c r="V4" t="n">
-        <v>1213942.372345438</v>
+        <v>1623133.539584009</v>
       </c>
     </row>
   </sheetData>

--- a/output/risk/BRN_osm_tc_CNRM-CM6-1-HR_risk.xlsx
+++ b/output/risk/BRN_osm_tc_CNRM-CM6-1-HR_risk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,92 +451,197 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>W2_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>W2_2_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>W2_2_2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>W2_2_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>W2_3_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>W2_3_2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>W2_3_3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>W2_4_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>W2_4_2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>W2_4_3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_6</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W2_5_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W2_5_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W2_5_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>W2_6_1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>W2_6_2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>W2_6_3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_5</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_6</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W2_7_1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>W2_7_2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>W2_7_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_6</t>
         </is>
       </c>
     </row>
@@ -547,67 +652,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002613836608625687</v>
+        <v>327910.1733255085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005227673217251374</v>
+        <v>202575.6181877586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001306918304312844</v>
+        <v>109303.3911085028</v>
       </c>
       <c r="E2" t="n">
-        <v>5.689106774013116e-08</v>
+        <v>68861.13639835677</v>
       </c>
       <c r="F2" t="n">
-        <v>1.137821354802623e-07</v>
+        <v>57930.7972875065</v>
       </c>
       <c r="G2" t="n">
-        <v>2.844553387006558e-07</v>
+        <v>38984.87616203267</v>
       </c>
       <c r="H2" t="n">
-        <v>3.01847205585438e-08</v>
+        <v>259041.9037201246</v>
       </c>
       <c r="I2" t="n">
-        <v>6.03694411170876e-08</v>
+        <v>160030.3316315436</v>
       </c>
       <c r="J2" t="n">
-        <v>1.50923602792719e-07</v>
+        <v>86347.30124004152</v>
       </c>
       <c r="K2" t="n">
-        <v>8.057042106980676e-08</v>
+        <v>54398.79978122617</v>
       </c>
       <c r="L2" t="n">
-        <v>1.611408421396135e-07</v>
+        <v>45764.06965722202</v>
       </c>
       <c r="M2" t="n">
-        <v>4.028521053490339e-07</v>
+        <v>30797.20410894815</v>
       </c>
       <c r="N2" t="n">
-        <v>1.340734678257388e-08</v>
+        <v>178764.4797771594</v>
       </c>
       <c r="O2" t="n">
-        <v>2.681469356514775e-08</v>
+        <v>110436.723062334</v>
       </c>
       <c r="P2" t="n">
-        <v>6.703673391286938e-08</v>
+        <v>59588.1599257198</v>
       </c>
       <c r="Q2" t="n">
-        <v>304112.3102332038</v>
+        <v>37540.54075320347</v>
       </c>
       <c r="R2" t="n">
-        <v>608224.6204664075</v>
+        <v>31581.72476063149</v>
       </c>
       <c r="S2" t="n">
-        <v>1520561.551166019</v>
+        <v>21253.11037350673</v>
       </c>
       <c r="T2" t="n">
-        <v>259701.3663334413</v>
+        <v>123281.1835964125</v>
       </c>
       <c r="U2" t="n">
-        <v>519402.7326668826</v>
+        <v>76160.37564400592</v>
       </c>
       <c r="V2" t="n">
-        <v>1298506.831667206</v>
+        <v>41093.72786547084</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25889.04855524663</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21779.67576869954</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14656.76293868459</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>100946.0413037772</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>62362.22107211127</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>33648.68043459242</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>21198.66867379322</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17833.80063033398</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12001.36268833796</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>271871.1748635364</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>167955.9702490292</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>90623.72495451214</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>57092.94672134265</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>48030.57422589143</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>32322.46190044266</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>112581.0559506539</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>69550.07456507061</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>37527.01865021796</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23642.02174963732</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19889.31988461551</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>13384.63665191107</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +785,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001960377456469266</v>
+        <v>245932.6299941314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003920754912938531</v>
+        <v>151931.7136408189</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009801887282346329</v>
+        <v>81977.54333137712</v>
       </c>
       <c r="E3" t="n">
-        <v>4.266830080509837e-08</v>
+        <v>51645.85229876759</v>
       </c>
       <c r="F3" t="n">
-        <v>8.533660161019674e-08</v>
+        <v>43448.09796562987</v>
       </c>
       <c r="G3" t="n">
-        <v>2.133415040254918e-07</v>
+        <v>29238.65712152451</v>
       </c>
       <c r="H3" t="n">
-        <v>2.263854041890785e-08</v>
+        <v>194281.4277900934</v>
       </c>
       <c r="I3" t="n">
-        <v>4.527708083781571e-08</v>
+        <v>120022.7487236577</v>
       </c>
       <c r="J3" t="n">
-        <v>1.131927020945392e-07</v>
+        <v>64760.47593003114</v>
       </c>
       <c r="K3" t="n">
-        <v>6.042781580235506e-08</v>
+        <v>40799.09983591962</v>
       </c>
       <c r="L3" t="n">
-        <v>1.208556316047101e-07</v>
+        <v>34323.05224291651</v>
       </c>
       <c r="M3" t="n">
-        <v>3.021390790117753e-07</v>
+        <v>23097.90308171111</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005551008693041e-08</v>
+        <v>134073.3598328696</v>
       </c>
       <c r="O3" t="n">
-        <v>2.011102017386082e-08</v>
+        <v>82827.54229675051</v>
       </c>
       <c r="P3" t="n">
-        <v>5.027755043465204e-08</v>
+        <v>44691.11994428984</v>
       </c>
       <c r="Q3" t="n">
-        <v>228084.2326749029</v>
+        <v>28155.4055649026</v>
       </c>
       <c r="R3" t="n">
-        <v>456168.4653498058</v>
+        <v>23686.29357047362</v>
       </c>
       <c r="S3" t="n">
-        <v>1140421.163374514</v>
+        <v>15939.83278013005</v>
       </c>
       <c r="T3" t="n">
-        <v>194776.024750081</v>
+        <v>92460.88769730937</v>
       </c>
       <c r="U3" t="n">
-        <v>389552.049500162</v>
+        <v>57120.28173300446</v>
       </c>
       <c r="V3" t="n">
-        <v>973880.1237504049</v>
+        <v>30820.29589910312</v>
+      </c>
+      <c r="W3" t="n">
+        <v>19416.78641643497</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16334.75682652465</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10992.57220401345</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>75709.53097783292</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>46771.66580408345</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>25236.51032594431</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15899.00150534492</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13375.35047275048</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9001.02201625347</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>203903.3811476523</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>125966.9776867719</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>67967.79371588409</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42819.71004100698</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>36022.93066941858</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24241.846425332</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>84435.79196299041</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>52162.55592380297</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>28145.26398766346</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17731.51631222798</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>14916.98991346164</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>10038.4774889333</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +918,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000326729576078211</v>
+        <v>409887.7166568856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006534591521564219</v>
+        <v>253219.5227346982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001633647880391055</v>
+        <v>136629.2388856286</v>
       </c>
       <c r="E4" t="n">
-        <v>7.111383467516394e-08</v>
+        <v>86076.42049794596</v>
       </c>
       <c r="F4" t="n">
-        <v>1.422276693503279e-07</v>
+        <v>72413.49660938312</v>
       </c>
       <c r="G4" t="n">
-        <v>3.555691733758197e-07</v>
+        <v>48731.09520254083</v>
       </c>
       <c r="H4" t="n">
-        <v>3.773090069817975e-08</v>
+        <v>323802.3796501557</v>
       </c>
       <c r="I4" t="n">
-        <v>7.546180139635951e-08</v>
+        <v>200037.9145394295</v>
       </c>
       <c r="J4" t="n">
-        <v>1.886545034908988e-07</v>
+        <v>107934.1265500519</v>
       </c>
       <c r="K4" t="n">
-        <v>1.007130263372585e-07</v>
+        <v>67998.49972653271</v>
       </c>
       <c r="L4" t="n">
-        <v>2.014260526745169e-07</v>
+        <v>57205.08707152752</v>
       </c>
       <c r="M4" t="n">
-        <v>5.035651316862923e-07</v>
+        <v>38496.50513618518</v>
       </c>
       <c r="N4" t="n">
-        <v>1.675918347821735e-08</v>
+        <v>223455.5997214492</v>
       </c>
       <c r="O4" t="n">
-        <v>3.351836695643469e-08</v>
+        <v>138045.9038279176</v>
       </c>
       <c r="P4" t="n">
-        <v>8.379591739108671e-08</v>
+        <v>74485.19990714976</v>
       </c>
       <c r="Q4" t="n">
-        <v>380140.3877915048</v>
+        <v>46925.67594150433</v>
       </c>
       <c r="R4" t="n">
-        <v>760280.7755830096</v>
+        <v>39477.15595078937</v>
       </c>
       <c r="S4" t="n">
-        <v>1900701.938957524</v>
+        <v>26566.38796688341</v>
       </c>
       <c r="T4" t="n">
-        <v>324626.7079168016</v>
+        <v>154101.4794955156</v>
       </c>
       <c r="U4" t="n">
-        <v>649253.4158336031</v>
+        <v>95200.46955500742</v>
       </c>
       <c r="V4" t="n">
-        <v>1623133.539584009</v>
+        <v>51367.15983183854</v>
+      </c>
+      <c r="W4" t="n">
+        <v>32361.31069405828</v>
+      </c>
+      <c r="X4" t="n">
+        <v>27224.59471087443</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>18320.95367335574</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>126182.5516297216</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>77952.77634013908</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>42060.85054324052</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>26498.33584224153</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>22292.25078791747</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15001.70336042245</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>339838.9685794205</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>209944.9628112865</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>113279.6561931402</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>71366.18340167831</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>60038.21778236429</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>40403.07737555333</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>140726.3199383173</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>86937.59320633828</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>46908.77331277245</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29552.52718704664</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>24861.64985576939</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>16730.79581488884</v>
       </c>
     </row>
   </sheetData>
